--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H2">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I2">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J2">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.181962</v>
+        <v>0.649981</v>
       </c>
       <c r="N2">
-        <v>6.545885999999999</v>
+        <v>1.949943</v>
       </c>
       <c r="O2">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542373</v>
       </c>
       <c r="P2">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542374</v>
       </c>
       <c r="Q2">
-        <v>2.24060222875</v>
+        <v>1.821490938195667</v>
       </c>
       <c r="R2">
-        <v>20.16542005875</v>
+        <v>16.393418443761</v>
       </c>
       <c r="S2">
-        <v>0.0003078854973691189</v>
+        <v>0.0002394454998197408</v>
       </c>
       <c r="T2">
-        <v>0.0003078854973691189</v>
+        <v>0.0002394454998197409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H3">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I3">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J3">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.780346</v>
       </c>
       <c r="O3">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="P3">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="Q3">
-        <v>1.97856426625</v>
+        <v>5.399566991771333</v>
       </c>
       <c r="R3">
-        <v>17.80707839625</v>
+        <v>48.59610292594199</v>
       </c>
       <c r="S3">
-        <v>0.0002718783527815175</v>
+        <v>0.0007098042543300187</v>
       </c>
       <c r="T3">
-        <v>0.0002718783527815175</v>
+        <v>0.0007098042543300187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H4">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I4">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J4">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.73423</v>
+        <v>7.907236000000001</v>
       </c>
       <c r="N4">
-        <v>17.20269</v>
+        <v>23.721708</v>
       </c>
       <c r="O4">
-        <v>0.4517163311066063</v>
+        <v>0.596444656297239</v>
       </c>
       <c r="P4">
-        <v>0.4517163311066063</v>
+        <v>0.5964446562972391</v>
       </c>
       <c r="Q4">
-        <v>5.88833743125</v>
+        <v>22.15904575699067</v>
       </c>
       <c r="R4">
-        <v>52.99503688125</v>
+        <v>199.431411812916</v>
       </c>
       <c r="S4">
-        <v>0.0008091278654618745</v>
+        <v>0.002912934495335476</v>
       </c>
       <c r="T4">
-        <v>0.0008091278654618745</v>
+        <v>0.002912934495335477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H5">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I5">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J5">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.851342333333333</v>
+        <v>2.773284666666667</v>
       </c>
       <c r="N5">
-        <v>8.554027</v>
+        <v>8.319853999999999</v>
       </c>
       <c r="O5">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="P5">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="Q5">
-        <v>2.927972158541666</v>
+        <v>7.771785466606444</v>
       </c>
       <c r="R5">
-        <v>26.351749426875</v>
+        <v>69.94606919945799</v>
       </c>
       <c r="S5">
-        <v>0.0004023383324127355</v>
+        <v>0.001021646068350341</v>
       </c>
       <c r="T5">
-        <v>0.0004023383324127355</v>
+        <v>0.001021646068350342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H6">
         <v>1630.040894</v>
       </c>
       <c r="I6">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J6">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.181962</v>
+        <v>0.649981</v>
       </c>
       <c r="N6">
-        <v>6.545885999999999</v>
+        <v>1.949943</v>
       </c>
       <c r="O6">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542373</v>
       </c>
       <c r="P6">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542374</v>
       </c>
       <c r="Q6">
-        <v>1185.562429718009</v>
+        <v>353.1652034410047</v>
       </c>
       <c r="R6">
-        <v>10670.06186746208</v>
+        <v>3178.486830969042</v>
       </c>
       <c r="S6">
-        <v>0.1629104325846843</v>
+        <v>0.04642560491716698</v>
       </c>
       <c r="T6">
-        <v>0.1629104325846843</v>
+        <v>0.04642560491716699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H7">
         <v>1630.040894</v>
       </c>
       <c r="I7">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J7">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>5.780346</v>
       </c>
       <c r="O7">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="P7">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="Q7">
-        <v>1046.911151274369</v>
+        <v>1046.91115127437</v>
       </c>
       <c r="R7">
         <v>9422.200361469324</v>
       </c>
       <c r="S7">
-        <v>0.1438580915324754</v>
+        <v>0.1376225149558354</v>
       </c>
       <c r="T7">
-        <v>0.1438580915324754</v>
+        <v>0.1376225149558354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H8">
         <v>1630.040894</v>
       </c>
       <c r="I8">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J8">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.73423</v>
+        <v>7.907236000000001</v>
       </c>
       <c r="N8">
-        <v>17.20269</v>
+        <v>23.721708</v>
       </c>
       <c r="O8">
-        <v>0.4517163311066063</v>
+        <v>0.596444656297239</v>
       </c>
       <c r="P8">
-        <v>0.4517163311066063</v>
+        <v>0.5964446562972391</v>
       </c>
       <c r="Q8">
-        <v>3115.67646520054</v>
+        <v>4296.372679502996</v>
       </c>
       <c r="R8">
-        <v>28041.08818680486</v>
+        <v>38667.35411552696</v>
       </c>
       <c r="S8">
-        <v>0.4281311451987131</v>
+        <v>0.564782992922562</v>
       </c>
       <c r="T8">
-        <v>0.4281311451987131</v>
+        <v>0.5647829929225622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H9">
         <v>1630.040894</v>
       </c>
       <c r="I9">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J9">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.851342333333333</v>
+        <v>2.773284666666667</v>
       </c>
       <c r="N9">
-        <v>8.554027</v>
+        <v>8.319853999999999</v>
       </c>
       <c r="O9">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="P9">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="Q9">
-        <v>1549.268202042237</v>
+        <v>1506.855805789942</v>
       </c>
       <c r="R9">
-        <v>13943.41381838014</v>
+        <v>13561.70225210948</v>
       </c>
       <c r="S9">
-        <v>0.2128879480808357</v>
+        <v>0.1980848951854035</v>
       </c>
       <c r="T9">
-        <v>0.2128879480808357</v>
+        <v>0.1980848951854036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H10">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I10">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J10">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.181962</v>
+        <v>0.649981</v>
       </c>
       <c r="N10">
-        <v>6.545885999999999</v>
+        <v>1.949943</v>
       </c>
       <c r="O10">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542373</v>
       </c>
       <c r="P10">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542374</v>
       </c>
       <c r="Q10">
-        <v>60.90097194265133</v>
+        <v>16.847263777125</v>
       </c>
       <c r="R10">
-        <v>548.108747483862</v>
+        <v>151.625373994125</v>
       </c>
       <c r="S10">
-        <v>0.008368520657629896</v>
+        <v>0.002214670087628717</v>
       </c>
       <c r="T10">
-        <v>0.008368520657629896</v>
+        <v>0.002214670087628717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H11">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I11">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J11">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.780346</v>
       </c>
       <c r="O11">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="P11">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="Q11">
-        <v>53.77861599863134</v>
+        <v>49.94146689675</v>
       </c>
       <c r="R11">
-        <v>484.007543987682</v>
+        <v>449.47320207075</v>
       </c>
       <c r="S11">
-        <v>0.007389823915242082</v>
+        <v>0.006565094150108132</v>
       </c>
       <c r="T11">
-        <v>0.007389823915242082</v>
+        <v>0.006565094150108133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H12">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I12">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J12">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.73423</v>
+        <v>7.907236000000001</v>
       </c>
       <c r="N12">
-        <v>17.20269</v>
+        <v>23.721708</v>
       </c>
       <c r="O12">
-        <v>0.4517163311066063</v>
+        <v>0.596444656297239</v>
       </c>
       <c r="P12">
-        <v>0.4517163311066063</v>
+        <v>0.5964446562972391</v>
       </c>
       <c r="Q12">
-        <v>160.04869944697</v>
+        <v>204.9525919065</v>
       </c>
       <c r="R12">
-        <v>1440.43829502273</v>
+        <v>1844.5733271585</v>
       </c>
       <c r="S12">
-        <v>0.02199260216749929</v>
+        <v>0.02694220145669019</v>
       </c>
       <c r="T12">
-        <v>0.02199260216749929</v>
+        <v>0.0269422014566902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H13">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I13">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J13">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.851342333333333</v>
+        <v>2.773284666666667</v>
       </c>
       <c r="N13">
-        <v>8.554027</v>
+        <v>8.319853999999999</v>
       </c>
       <c r="O13">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="P13">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="Q13">
-        <v>79.58411715750655</v>
+        <v>71.88249857824999</v>
       </c>
       <c r="R13">
-        <v>716.2570544175589</v>
+        <v>646.94248720425</v>
       </c>
       <c r="S13">
-        <v>0.0109358078731319</v>
+        <v>0.009449369436562056</v>
       </c>
       <c r="T13">
-        <v>0.0109358078731319</v>
+        <v>0.00944936943656206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H14">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I14">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J14">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.181962</v>
+        <v>0.649981</v>
       </c>
       <c r="N14">
-        <v>6.545885999999999</v>
+        <v>1.949943</v>
       </c>
       <c r="O14">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542373</v>
       </c>
       <c r="P14">
-        <v>0.1718849556529879</v>
+        <v>0.04902821847542374</v>
       </c>
       <c r="Q14">
-        <v>2.169512452148667</v>
+        <v>1.129642062061667</v>
       </c>
       <c r="R14">
-        <v>19.525612069338</v>
+        <v>10.166778558555</v>
       </c>
       <c r="S14">
-        <v>0.0002981169133045695</v>
+        <v>0.0001484979708082975</v>
       </c>
       <c r="T14">
-        <v>0.0002981169133045695</v>
+        <v>0.0001484979708082975</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H15">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I15">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J15">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.780346</v>
       </c>
       <c r="O15">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="P15">
-        <v>0.1517830460030813</v>
+        <v>0.1453376157926368</v>
       </c>
       <c r="Q15">
-        <v>1.915788424168667</v>
+        <v>3.348673256023333</v>
       </c>
       <c r="R15">
-        <v>17.242095817518</v>
+        <v>30.13805930421</v>
       </c>
       <c r="S15">
-        <v>0.0002632522025822654</v>
+        <v>0.0004402024323633352</v>
       </c>
       <c r="T15">
-        <v>0.0002632522025822654</v>
+        <v>0.0004402024323633353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H16">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I16">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J16">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.73423</v>
+        <v>7.907236000000001</v>
       </c>
       <c r="N16">
-        <v>17.20269</v>
+        <v>23.721708</v>
       </c>
       <c r="O16">
-        <v>0.4517163311066063</v>
+        <v>0.596444656297239</v>
       </c>
       <c r="P16">
-        <v>0.4517163311066063</v>
+        <v>0.5964446562972391</v>
       </c>
       <c r="Q16">
-        <v>5.701512395030001</v>
+        <v>13.74247305728667</v>
       </c>
       <c r="R16">
-        <v>51.31361155527001</v>
+        <v>123.68225751558</v>
       </c>
       <c r="S16">
-        <v>0.000783455874932039</v>
+        <v>0.001806527422651306</v>
       </c>
       <c r="T16">
-        <v>0.000783455874932039</v>
+        <v>0.001806527422651307</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H17">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I17">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J17">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.851342333333333</v>
+        <v>2.773284666666667</v>
       </c>
       <c r="N17">
-        <v>8.554027</v>
+        <v>8.319853999999999</v>
       </c>
       <c r="O17">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="P17">
-        <v>0.2246156672373245</v>
+        <v>0.2091895094347004</v>
       </c>
       <c r="Q17">
-        <v>2.835073524426778</v>
+        <v>4.81986244142111</v>
       </c>
       <c r="R17">
-        <v>25.515661719841</v>
+        <v>43.37876197279</v>
       </c>
       <c r="S17">
-        <v>0.0003895729509441421</v>
+        <v>0.0006335987443844751</v>
       </c>
       <c r="T17">
-        <v>0.0003895729509441421</v>
+        <v>0.0006335987443844754</v>
       </c>
     </row>
   </sheetData>
